--- a/target/test-classes/TestExcel.xlsx
+++ b/target/test-classes/TestExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\EclipseWorkspace\StandAloneJavaPrograms\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5192FF-6CE8-4E1C-8D1D-2E82D76F195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48FF687-1E64-40D1-9505-409DB026BC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,8 +436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B35AF71-DE16-4784-A7CF-4A99BA21D7A6}">
   <dimension ref="C5:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
